--- a/Data/2017-10-12_trik_cohort_list.xlsx
+++ b/Data/2017-10-12_trik_cohort_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21740" yWindow="11300" windowWidth="26360" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="22620" yWindow="9560" windowWidth="26360" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,10 +282,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,12 +305,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -313,10 +334,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1015,6 +1038,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>